--- a/3.xlsx
+++ b/3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CafeteriaBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647EEC3-13E9-4165-8434-0ADC723741CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3121ADB2-CE8D-4AA4-B8A0-EAE88323A93A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1207,9 +1207,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,9 +1219,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1258,9 +1252,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1282,28 +1273,55 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,25 +1336,64 @@
     <xf numFmtId="41" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1345,52 +1402,202 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,221 +1606,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1925,9 +1919,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96:C96"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X84" sqref="X84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1937,2439 +1931,2996 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="137"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="133" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="133" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="133" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="133" t="s">
+      <c r="I2" s="86"/>
+      <c r="J2" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="134"/>
-      <c r="L2" s="133" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="134"/>
-      <c r="N2" s="133" t="s">
+      <c r="M2" s="86"/>
+      <c r="N2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="134"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:30" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="133" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="133" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="134"/>
-      <c r="H3" s="133" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="133" t="s">
+      <c r="I3" s="86"/>
+      <c r="J3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="133" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="133" t="s">
+      <c r="M3" s="86"/>
+      <c r="N3" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="134"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="100" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="100" t="s">
+      <c r="I4" s="96"/>
+      <c r="J4" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="132"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
     </row>
     <row r="5" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="49"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="94" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="94" t="s">
+      <c r="I5" s="73"/>
+      <c r="J5" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="124"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
     </row>
     <row r="6" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="49"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="129" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="80" t="s">
+      <c r="G6" s="104"/>
+      <c r="H6" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="80" t="s">
+      <c r="I6" s="106"/>
+      <c r="J6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="92"/>
     </row>
     <row r="7" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="49"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="127" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="94" t="s">
+      <c r="I7" s="102"/>
+      <c r="J7" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="95"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="124"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="92"/>
     </row>
     <row r="8" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="49"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="94" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="94" t="s">
+      <c r="I8" s="73"/>
+      <c r="J8" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="124"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92"/>
     </row>
     <row r="9" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="142" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="O9" s="126"/>
+      <c r="O9" s="108"/>
       <c r="AD9" s="5"/>
     </row>
     <row r="10" spans="1:30" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="59" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="59" t="s">
+      <c r="I10" s="59"/>
+      <c r="J10" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="109"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="112" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="120"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
     </row>
     <row r="12" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="112" t="s">
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="113"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="99"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="126"/>
     </row>
     <row r="13" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="110"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="116" t="s">
+      <c r="A13" s="112"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="I13" s="117"/>
+      <c r="I13" s="119"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="118"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="120"/>
     </row>
     <row r="14" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="143" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="O14" s="144"/>
+      <c r="O14" s="36"/>
     </row>
     <row r="15" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="I15" s="103"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="1:30" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="49"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="97"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="49"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="105"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="128"/>
     </row>
     <row r="18" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="49"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="49"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="97"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="49"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="94" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="95"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="41"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="50"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="90" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="I21" s="91"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="89"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="130"/>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="71" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="71" t="s">
+      <c r="E22" s="71"/>
+      <c r="F22" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="71" t="s">
+      <c r="G22" s="71"/>
+      <c r="H22" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="71" t="s">
+      <c r="I22" s="71"/>
+      <c r="J22" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="72"/>
-      <c r="L22" s="71" t="s">
+      <c r="K22" s="71"/>
+      <c r="L22" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="72"/>
-      <c r="N22" s="71" t="s">
+      <c r="M22" s="71"/>
+      <c r="N22" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="O22" s="72"/>
+      <c r="O22" s="71"/>
     </row>
     <row r="23" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="51" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51" t="s">
+      <c r="E23" s="49"/>
+      <c r="F23" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="51" t="s">
+      <c r="G23" s="49"/>
+      <c r="H23" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="51" t="s">
+      <c r="I23" s="49"/>
+      <c r="J23" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="51"/>
     </row>
     <row r="24" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="49"/>
-      <c r="B24" s="42" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="42" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="42" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="42" t="s">
+      <c r="G24" s="40"/>
+      <c r="H24" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="42" t="s">
+      <c r="I24" s="40"/>
+      <c r="J24" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
     </row>
     <row r="25" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="49"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="42" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="42" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="42" t="s">
+      <c r="G25" s="40"/>
+      <c r="H25" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="42" t="s">
+      <c r="I25" s="40"/>
+      <c r="J25" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="41"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
     </row>
     <row r="26" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="49"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="42" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="42" t="s">
+      <c r="G26" s="40"/>
+      <c r="H26" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="42" t="s">
+      <c r="I26" s="40"/>
+      <c r="J26" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="49"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="42" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="42" t="s">
+      <c r="G27" s="40"/>
+      <c r="H27" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="42" t="s">
+      <c r="I27" s="40"/>
+      <c r="J27" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="41"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
     </row>
     <row r="28" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="42" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="38" t="s">
+      <c r="G28" s="40"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
     </row>
     <row r="29" spans="1:15" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="59" t="s">
+      <c r="C29" s="59"/>
+      <c r="D29" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="59" t="s">
+      <c r="E29" s="59"/>
+      <c r="F29" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="59" t="s">
+      <c r="G29" s="59"/>
+      <c r="H29" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="59" t="s">
+      <c r="I29" s="59"/>
+      <c r="J29" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="64"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
     </row>
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="86" t="s">
+      <c r="A30" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="86" t="s">
+      <c r="C30" s="136"/>
+      <c r="D30" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="86" t="s">
+      <c r="E30" s="136"/>
+      <c r="F30" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="87"/>
-      <c r="H30" s="86" t="s">
+      <c r="G30" s="136"/>
+      <c r="H30" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
     </row>
     <row r="31" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="82" t="s">
+      <c r="A31" s="113"/>
+      <c r="B31" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="82" t="s">
+      <c r="C31" s="77"/>
+      <c r="D31" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="82" t="s">
+      <c r="E31" s="77"/>
+      <c r="F31" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="82" t="s">
+      <c r="G31" s="77"/>
+      <c r="H31" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="83"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="82" t="s">
+      <c r="A32" s="113"/>
+      <c r="B32" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="82" t="s">
+      <c r="C32" s="77"/>
+      <c r="D32" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="82" t="s">
+      <c r="E32" s="77"/>
+      <c r="F32" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="83"/>
-      <c r="H32" s="82" t="s">
+      <c r="G32" s="77"/>
+      <c r="H32" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="83"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="77"/>
     </row>
     <row r="33" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="84" t="s">
+      <c r="A33" s="144"/>
+      <c r="B33" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="84" t="s">
+      <c r="C33" s="138"/>
+      <c r="D33" s="137" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="84" t="s">
+      <c r="E33" s="138"/>
+      <c r="F33" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="G33" s="85"/>
-      <c r="H33" s="84" t="s">
+      <c r="G33" s="138"/>
+      <c r="H33" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="I33" s="85"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="51" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="51" t="s">
+      <c r="E34" s="49"/>
+      <c r="F34" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="51" t="s">
+      <c r="G34" s="49"/>
+      <c r="H34" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="140"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="45"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="78"/>
-      <c r="B35" s="42" t="s">
+      <c r="A35" s="140"/>
+      <c r="B35" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="42" t="s">
+      <c r="C35" s="40"/>
+      <c r="D35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="42" t="s">
+      <c r="E35" s="40"/>
+      <c r="F35" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="42" t="s">
+      <c r="G35" s="40"/>
+      <c r="H35" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34"/>
     </row>
     <row r="36" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="78"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="140"/>
+      <c r="B36" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="42" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="80" t="s">
+      <c r="E36" s="40"/>
+      <c r="F36" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="81"/>
-      <c r="H36" s="42" t="s">
+      <c r="G36" s="106"/>
+      <c r="H36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="41"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="34"/>
     </row>
     <row r="37" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="78"/>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="140"/>
+      <c r="B37" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="42" t="s">
+      <c r="C37" s="40"/>
+      <c r="D37" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="42" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="41"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="34"/>
     </row>
     <row r="38" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="78"/>
-      <c r="B38" s="42" t="s">
+      <c r="A38" s="140"/>
+      <c r="B38" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="42" t="s">
+      <c r="C38" s="40"/>
+      <c r="D38" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="42" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="42" t="s">
+      <c r="G38" s="40"/>
+      <c r="H38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="41"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="34"/>
     </row>
     <row r="39" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="78"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="140"/>
+      <c r="B39" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="42" t="s">
+      <c r="C39" s="40"/>
+      <c r="D39" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="42" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="42" t="s">
+      <c r="G39" s="40"/>
+      <c r="H39" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="41"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="34"/>
     </row>
     <row r="40" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="79"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="38" t="s">
+      <c r="A40" s="141"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="38" t="s">
+      <c r="E40" s="42"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="37"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="143"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="44"/>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="71" t="s">
+      <c r="C41" s="71"/>
+      <c r="D41" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="71" t="s">
+      <c r="E41" s="71"/>
+      <c r="F41" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="72"/>
-      <c r="H41" s="71" t="s">
+      <c r="G41" s="71"/>
+      <c r="H41" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="72"/>
-      <c r="J41" s="71" t="s">
+      <c r="I41" s="71"/>
+      <c r="J41" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="K41" s="72"/>
-      <c r="L41" s="71" t="s">
+      <c r="K41" s="71"/>
+      <c r="L41" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="M41" s="72"/>
-      <c r="N41" s="71" t="s">
+      <c r="M41" s="71"/>
+      <c r="N41" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="O41" s="72"/>
+      <c r="O41" s="71"/>
     </row>
     <row r="42" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="44" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="44" t="s">
+      <c r="E42" s="51"/>
+      <c r="F42" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="44" t="s">
+      <c r="G42" s="51"/>
+      <c r="H42" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="44" t="s">
+      <c r="I42" s="51"/>
+      <c r="J42" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="K42" s="45"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="45"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="51"/>
     </row>
     <row r="43" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="49"/>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="40" t="s">
+      <c r="C43" s="34"/>
+      <c r="D43" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="40" t="s">
+      <c r="E43" s="34"/>
+      <c r="F43" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="40" t="s">
+      <c r="G43" s="34"/>
+      <c r="H43" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="40" t="s">
+      <c r="I43" s="34"/>
+      <c r="J43" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="K43" s="41"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="41"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="34"/>
     </row>
     <row r="44" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="49"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="69" t="s">
+      <c r="C44" s="40"/>
+      <c r="D44" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="42" t="s">
+      <c r="E44" s="69"/>
+      <c r="F44" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="42" t="s">
+      <c r="G44" s="40"/>
+      <c r="H44" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="42" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="K44" s="43"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="41"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="34"/>
     </row>
     <row r="45" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="49"/>
-      <c r="B45" s="42" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="42" t="s">
+      <c r="C45" s="40"/>
+      <c r="D45" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="42" t="s">
+      <c r="E45" s="40"/>
+      <c r="F45" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="42" t="s">
+      <c r="G45" s="40"/>
+      <c r="H45" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="42" t="s">
+      <c r="I45" s="40"/>
+      <c r="J45" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="K45" s="43"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="41"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="49"/>
-      <c r="B46" s="42" t="s">
+      <c r="A46" s="46"/>
+      <c r="B46" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="42" t="s">
+      <c r="C46" s="40"/>
+      <c r="D46" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="42" t="s">
+      <c r="E46" s="40"/>
+      <c r="F46" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="42" t="s">
+      <c r="G46" s="40"/>
+      <c r="H46" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I46" s="43"/>
-      <c r="J46" s="42" t="s">
+      <c r="I46" s="40"/>
+      <c r="J46" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="41"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="34"/>
     </row>
     <row r="47" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="21"/>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="59" t="s">
+      <c r="C48" s="59"/>
+      <c r="D48" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="59" t="s">
+      <c r="E48" s="59"/>
+      <c r="F48" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="59" t="s">
+      <c r="G48" s="59"/>
+      <c r="H48" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="I48" s="60"/>
-      <c r="J48" s="59" t="s">
+      <c r="I48" s="59"/>
+      <c r="J48" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="K48" s="60"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="64"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="63"/>
     </row>
     <row r="49" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="11"/>
-      <c r="B49" s="65" t="s">
+      <c r="A49" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="65" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="65" t="s">
+      <c r="E49" s="65"/>
+      <c r="F49" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="G49" s="66"/>
-      <c r="H49" s="65" t="s">
+      <c r="G49" s="65"/>
+      <c r="H49" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="I49" s="66"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="68"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="67"/>
     </row>
     <row r="50" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="53" t="s">
+      <c r="A50" s="113"/>
+      <c r="B50" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="53" t="s">
+      <c r="C50" s="55"/>
+      <c r="D50" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="53" t="s">
+      <c r="E50" s="55"/>
+      <c r="F50" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="G50" s="54"/>
-      <c r="H50" s="53" t="s">
+      <c r="G50" s="55"/>
+      <c r="H50" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="I50" s="54"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="58"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="57"/>
     </row>
     <row r="51" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="16"/>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="113"/>
+      <c r="B51" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="53" t="s">
+      <c r="C51" s="55"/>
+      <c r="D51" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="53" t="s">
+      <c r="E51" s="55"/>
+      <c r="F51" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="G51" s="54"/>
-      <c r="H51" s="53" t="s">
+      <c r="G51" s="55"/>
+      <c r="H51" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="I51" s="54"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="54"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="55"/>
     </row>
     <row r="52" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="144"/>
+      <c r="B52" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="53" t="s">
+      <c r="C52" s="55"/>
+      <c r="D52" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="56"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="75"/>
     </row>
     <row r="53" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="51" t="s">
+      <c r="C53" s="49"/>
+      <c r="D53" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="51" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="G53" s="52"/>
-      <c r="H53" s="51" t="s">
+      <c r="G53" s="49"/>
+      <c r="H53" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="I53" s="52"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="45"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="51"/>
     </row>
     <row r="54" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="49"/>
-      <c r="B54" s="42" t="s">
+      <c r="A54" s="46"/>
+      <c r="B54" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="42" t="s">
+      <c r="C54" s="40"/>
+      <c r="D54" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="42" t="s">
+      <c r="E54" s="40"/>
+      <c r="F54" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="G54" s="43"/>
-      <c r="H54" s="42" t="s">
+      <c r="G54" s="40"/>
+      <c r="H54" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="I54" s="43"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="47"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="53"/>
     </row>
     <row r="55" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="49"/>
-      <c r="B55" s="42" t="s">
+      <c r="A55" s="46"/>
+      <c r="B55" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="42" t="s">
+      <c r="C55" s="40"/>
+      <c r="D55" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="42" t="s">
+      <c r="E55" s="40"/>
+      <c r="F55" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="43"/>
-      <c r="H55" s="42" t="s">
+      <c r="G55" s="40"/>
+      <c r="H55" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I55" s="43"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="41"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="34"/>
     </row>
     <row r="56" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="49"/>
-      <c r="B56" s="42" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="42" t="s">
+      <c r="C56" s="40"/>
+      <c r="D56" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="42" t="s">
+      <c r="E56" s="40"/>
+      <c r="F56" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="G56" s="43"/>
-      <c r="H56" s="42" t="s">
+      <c r="G56" s="40"/>
+      <c r="H56" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="I56" s="43"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="34"/>
     </row>
     <row r="57" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="49"/>
-      <c r="B57" s="42" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="42" t="s">
+      <c r="C57" s="40"/>
+      <c r="D57" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="43"/>
-      <c r="F57" s="42" t="s">
+      <c r="E57" s="40"/>
+      <c r="F57" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G57" s="43"/>
-      <c r="H57" s="42" t="s">
+      <c r="G57" s="40"/>
+      <c r="H57" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="I57" s="43"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="41"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="34"/>
     </row>
     <row r="58" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="49"/>
-      <c r="B58" s="42" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="42" t="s">
+      <c r="C58" s="40"/>
+      <c r="D58" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="42" t="s">
+      <c r="E58" s="40"/>
+      <c r="F58" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G58" s="43"/>
-      <c r="H58" s="42" t="s">
+      <c r="G58" s="40"/>
+      <c r="H58" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I58" s="43"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="41"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="34"/>
     </row>
     <row r="59" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="50"/>
-      <c r="B59" s="38" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="38" t="s">
+      <c r="C59" s="42"/>
+      <c r="D59" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="38" t="s">
+      <c r="E59" s="42"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="I59" s="39"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="37"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="44"/>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9"/>
-      <c r="B60" s="71" t="s">
+      <c r="B60" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="72"/>
-      <c r="D60" s="71" t="s">
+      <c r="C60" s="71"/>
+      <c r="D60" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="72"/>
-      <c r="F60" s="71" t="s">
+      <c r="E60" s="71"/>
+      <c r="F60" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="72"/>
-      <c r="H60" s="71" t="s">
+      <c r="G60" s="71"/>
+      <c r="H60" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="72"/>
-      <c r="J60" s="71" t="s">
+      <c r="I60" s="71"/>
+      <c r="J60" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="K60" s="72"/>
-      <c r="L60" s="71" t="s">
+      <c r="K60" s="71"/>
+      <c r="L60" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="M60" s="72"/>
-      <c r="N60" s="71" t="s">
+      <c r="M60" s="71"/>
+      <c r="N60" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="O60" s="72"/>
+      <c r="O60" s="71"/>
     </row>
     <row r="61" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="44" t="s">
+      <c r="C61" s="51"/>
+      <c r="D61" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="44" t="s">
+      <c r="E61" s="51"/>
+      <c r="F61" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="44" t="s">
+      <c r="G61" s="51"/>
+      <c r="H61" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I61" s="45"/>
-      <c r="J61" s="44" t="s">
+      <c r="I61" s="51"/>
+      <c r="J61" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="K61" s="45"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="45"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="51"/>
     </row>
     <row r="62" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="49"/>
-      <c r="B62" s="40" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="40" t="s">
+      <c r="C62" s="34"/>
+      <c r="D62" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="40" t="s">
+      <c r="E62" s="34"/>
+      <c r="F62" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="40" t="s">
+      <c r="G62" s="34"/>
+      <c r="H62" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="I62" s="41"/>
-      <c r="J62" s="40" t="s">
+      <c r="I62" s="34"/>
+      <c r="J62" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="K62" s="41"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="41"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="34"/>
     </row>
     <row r="63" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="49"/>
-      <c r="B63" s="42" t="s">
+      <c r="A63" s="46"/>
+      <c r="B63" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="42" t="s">
+      <c r="C63" s="40"/>
+      <c r="D63" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="42" t="s">
+      <c r="E63" s="40"/>
+      <c r="F63" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="43"/>
-      <c r="H63" s="42" t="s">
+      <c r="G63" s="40"/>
+      <c r="H63" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="I63" s="43"/>
-      <c r="J63" s="42" t="s">
+      <c r="I63" s="40"/>
+      <c r="J63" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="K63" s="43"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="41"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="34"/>
     </row>
     <row r="64" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="49"/>
-      <c r="B64" s="42" t="s">
+      <c r="A64" s="46"/>
+      <c r="B64" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="69" t="s">
+      <c r="C64" s="40"/>
+      <c r="D64" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="E64" s="70"/>
-      <c r="F64" s="42" t="s">
+      <c r="E64" s="69"/>
+      <c r="F64" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G64" s="43"/>
-      <c r="H64" s="42" t="s">
+      <c r="G64" s="40"/>
+      <c r="H64" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="I64" s="43"/>
-      <c r="J64" s="42" t="s">
+      <c r="I64" s="40"/>
+      <c r="J64" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="K64" s="43"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="41"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="34"/>
     </row>
     <row r="65" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="49"/>
-      <c r="B65" s="42" t="s">
+      <c r="A65" s="46"/>
+      <c r="B65" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="42" t="s">
+      <c r="C65" s="40"/>
+      <c r="D65" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="43"/>
-      <c r="F65" s="42" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="38" t="s">
+      <c r="G65" s="40"/>
+      <c r="H65" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="I65" s="39"/>
-      <c r="J65" s="42" t="s">
+      <c r="I65" s="42"/>
+      <c r="J65" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="K65" s="43"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="41"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="34"/>
     </row>
     <row r="66" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="21"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="38" t="s">
+      <c r="A66" s="19"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="38" t="s">
+      <c r="E66" s="42"/>
+      <c r="F66" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="G66" s="39"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="38" t="s">
+      <c r="G66" s="42"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K66" s="39"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="41"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="34"/>
     </row>
     <row r="67" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="59" t="s">
+      <c r="C67" s="59"/>
+      <c r="D67" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="60"/>
-      <c r="F67" s="59" t="s">
+      <c r="E67" s="59"/>
+      <c r="F67" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="G67" s="60"/>
-      <c r="H67" s="59" t="s">
+      <c r="G67" s="59"/>
+      <c r="H67" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="I67" s="60"/>
-      <c r="J67" s="59" t="s">
+      <c r="I67" s="59"/>
+      <c r="J67" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="K67" s="60"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="64"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="63"/>
     </row>
     <row r="68" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="11"/>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="66"/>
-      <c r="D68" s="65" t="s">
+      <c r="C68" s="65"/>
+      <c r="D68" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="66"/>
-      <c r="F68" s="65" t="s">
+      <c r="E68" s="65"/>
+      <c r="F68" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="G68" s="66"/>
-      <c r="H68" s="65" t="s">
+      <c r="G68" s="65"/>
+      <c r="H68" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="I68" s="66"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="67"/>
-      <c r="O68" s="68"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="67"/>
     </row>
     <row r="69" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="113"/>
+      <c r="B69" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="53" t="s">
+      <c r="C69" s="55"/>
+      <c r="D69" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="54"/>
-      <c r="F69" s="53" t="s">
+      <c r="E69" s="55"/>
+      <c r="F69" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="G69" s="54"/>
-      <c r="H69" s="53" t="s">
+      <c r="G69" s="55"/>
+      <c r="H69" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="I69" s="54"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="58"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="57"/>
     </row>
     <row r="70" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="16"/>
-      <c r="B70" s="53" t="s">
+      <c r="A70" s="113"/>
+      <c r="B70" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="53" t="s">
+      <c r="C70" s="55"/>
+      <c r="D70" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="E70" s="54"/>
-      <c r="F70" s="53" t="s">
+      <c r="E70" s="55"/>
+      <c r="F70" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="G70" s="54"/>
-      <c r="H70" s="53" t="s">
+      <c r="G70" s="55"/>
+      <c r="H70" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="I70" s="54"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="20"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="16"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="53" t="s">
+      <c r="A71" s="144"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="E71" s="54"/>
-      <c r="F71" s="53" t="s">
+      <c r="E71" s="55"/>
+      <c r="F71" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="G71" s="54"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="56"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="75"/>
     </row>
     <row r="72" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="51" t="s">
+      <c r="C72" s="49"/>
+      <c r="D72" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="E72" s="52"/>
-      <c r="F72" s="51" t="s">
+      <c r="E72" s="49"/>
+      <c r="F72" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="52"/>
-      <c r="H72" s="51" t="s">
+      <c r="G72" s="49"/>
+      <c r="H72" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="I72" s="52"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="45"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="51"/>
     </row>
     <row r="73" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="49"/>
-      <c r="B73" s="42" t="s">
+      <c r="A73" s="46"/>
+      <c r="B73" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="42" t="s">
+      <c r="C73" s="40"/>
+      <c r="D73" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="E73" s="43"/>
-      <c r="F73" s="42" t="s">
+      <c r="E73" s="40"/>
+      <c r="F73" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="43"/>
-      <c r="H73" s="42" t="s">
+      <c r="G73" s="40"/>
+      <c r="H73" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I73" s="43"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="47"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="53"/>
     </row>
     <row r="74" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="49"/>
-      <c r="B74" s="42" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="42" t="s">
+      <c r="C74" s="40"/>
+      <c r="D74" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="42" t="s">
+      <c r="E74" s="40"/>
+      <c r="F74" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="G74" s="43"/>
-      <c r="H74" s="42" t="s">
+      <c r="G74" s="40"/>
+      <c r="H74" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I74" s="43"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="41"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="34"/>
     </row>
     <row r="75" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="49"/>
-      <c r="B75" s="42" t="s">
+      <c r="A75" s="46"/>
+      <c r="B75" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="42" t="s">
+      <c r="C75" s="40"/>
+      <c r="D75" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="42" t="s">
+      <c r="E75" s="40"/>
+      <c r="F75" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G75" s="43"/>
-      <c r="H75" s="42" t="s">
+      <c r="G75" s="40"/>
+      <c r="H75" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="43"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="41"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="34"/>
     </row>
     <row r="76" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="49"/>
-      <c r="B76" s="42" t="s">
+      <c r="A76" s="46"/>
+      <c r="B76" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="42" t="s">
+      <c r="C76" s="40"/>
+      <c r="D76" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="43"/>
-      <c r="F76" s="42" t="s">
+      <c r="E76" s="40"/>
+      <c r="F76" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="42" t="s">
+      <c r="G76" s="40"/>
+      <c r="H76" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="I76" s="43"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="41"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="34"/>
     </row>
     <row r="77" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="49"/>
-      <c r="B77" s="42" t="s">
+      <c r="A77" s="46"/>
+      <c r="B77" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="42" t="s">
+      <c r="C77" s="40"/>
+      <c r="D77" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="42" t="s">
+      <c r="E77" s="40"/>
+      <c r="F77" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G77" s="43"/>
-      <c r="H77" s="42" t="s">
+      <c r="G77" s="40"/>
+      <c r="H77" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I77" s="43"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="41"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="34"/>
     </row>
     <row r="78" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="50"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="38" t="s">
+      <c r="A78" s="47"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="E78" s="39"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="38" t="s">
+      <c r="E78" s="42"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="I78" s="39"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="37"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="44"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="9"/>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="72"/>
-      <c r="D79" s="71" t="s">
+      <c r="C79" s="71"/>
+      <c r="D79" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="E79" s="72"/>
-      <c r="F79" s="71" t="s">
+      <c r="E79" s="71"/>
+      <c r="F79" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="G79" s="72"/>
-      <c r="H79" s="71" t="s">
+      <c r="G79" s="71"/>
+      <c r="H79" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="I79" s="72"/>
-      <c r="J79" s="71" t="s">
+      <c r="I79" s="71"/>
+      <c r="J79" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="K79" s="72"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="72"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="72"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="70"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="70"/>
+      <c r="O79" s="71"/>
     </row>
     <row r="80" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="48" t="s">
+      <c r="A80" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="44" t="s">
+      <c r="C80" s="51"/>
+      <c r="D80" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="44" t="s">
+      <c r="E80" s="51"/>
+      <c r="F80" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G80" s="45"/>
-      <c r="H80" s="44" t="s">
+      <c r="G80" s="51"/>
+      <c r="H80" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="I80" s="45"/>
-      <c r="J80" s="44" t="s">
+      <c r="I80" s="51"/>
+      <c r="J80" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="K80" s="45"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="45"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="51"/>
     </row>
     <row r="81" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="49"/>
-      <c r="B81" s="40" t="s">
+      <c r="A81" s="46"/>
+      <c r="B81" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="40" t="s">
+      <c r="C81" s="34"/>
+      <c r="D81" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E81" s="41"/>
-      <c r="F81" s="40" t="s">
+      <c r="E81" s="34"/>
+      <c r="F81" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G81" s="41"/>
-      <c r="H81" s="40" t="s">
+      <c r="G81" s="34"/>
+      <c r="H81" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I81" s="41"/>
-      <c r="J81" s="69" t="s">
+      <c r="I81" s="34"/>
+      <c r="J81" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="K81" s="70"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="41"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="34"/>
     </row>
     <row r="82" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="49"/>
-      <c r="B82" s="42" t="s">
+      <c r="A82" s="46"/>
+      <c r="B82" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C82" s="43"/>
-      <c r="D82" s="94" t="s">
+      <c r="C82" s="40"/>
+      <c r="D82" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="E82" s="95"/>
-      <c r="F82" s="42" t="s">
+      <c r="E82" s="73"/>
+      <c r="F82" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G82" s="43"/>
-      <c r="H82" s="69" t="s">
+      <c r="G82" s="40"/>
+      <c r="H82" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="I82" s="70"/>
-      <c r="J82" s="42" t="s">
+      <c r="I82" s="69"/>
+      <c r="J82" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="K82" s="43"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="41"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="34"/>
     </row>
     <row r="83" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="49"/>
-      <c r="B83" s="42" t="s">
+      <c r="A83" s="46"/>
+      <c r="B83" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="42" t="s">
+      <c r="C83" s="40"/>
+      <c r="D83" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="42" t="s">
+      <c r="E83" s="40"/>
+      <c r="F83" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="42" t="s">
+      <c r="G83" s="40"/>
+      <c r="H83" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I83" s="43"/>
-      <c r="J83" s="42" t="s">
+      <c r="I83" s="40"/>
+      <c r="J83" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="K83" s="43"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="41"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="34"/>
     </row>
     <row r="84" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="49"/>
-      <c r="B84" s="42" t="s">
+      <c r="A84" s="46"/>
+      <c r="B84" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="69" t="s">
+      <c r="C84" s="40"/>
+      <c r="D84" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="70"/>
-      <c r="F84" s="42" t="s">
+      <c r="E84" s="69"/>
+      <c r="F84" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="42" t="s">
+      <c r="G84" s="40"/>
+      <c r="H84" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I84" s="43"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="41"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="34"/>
     </row>
     <row r="85" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="21"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="38" t="s">
+      <c r="A85" s="19"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E85" s="39"/>
-      <c r="F85" s="38" t="s">
+      <c r="E85" s="42"/>
+      <c r="F85" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="G85" s="39"/>
-      <c r="H85" s="38" t="s">
+      <c r="G85" s="42"/>
+      <c r="H85" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="I85" s="39"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="40"/>
-      <c r="O85" s="41"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="34"/>
     </row>
     <row r="86" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="59" t="s">
+      <c r="C86" s="59"/>
+      <c r="D86" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E86" s="60"/>
-      <c r="F86" s="59" t="s">
+      <c r="E86" s="59"/>
+      <c r="F86" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="G86" s="60"/>
-      <c r="H86" s="59" t="s">
+      <c r="G86" s="59"/>
+      <c r="H86" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="I86" s="60"/>
-      <c r="J86" s="59" t="s">
+      <c r="I86" s="59"/>
+      <c r="J86" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="K86" s="60"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="63"/>
-      <c r="O86" s="64"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="62"/>
+      <c r="O86" s="63"/>
     </row>
     <row r="87" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="11"/>
-      <c r="B87" s="65" t="s">
+      <c r="A87" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="66"/>
-      <c r="D87" s="65" t="s">
+      <c r="C87" s="65"/>
+      <c r="D87" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E87" s="66"/>
-      <c r="F87" s="65" t="s">
+      <c r="E87" s="65"/>
+      <c r="F87" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="G87" s="66"/>
-      <c r="H87" s="65" t="s">
+      <c r="G87" s="65"/>
+      <c r="H87" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="I87" s="66"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="68"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="68"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="66"/>
+      <c r="O87" s="67"/>
     </row>
     <row r="88" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="53" t="s">
+      <c r="A88" s="113"/>
+      <c r="B88" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="54"/>
-      <c r="D88" s="53" t="s">
+      <c r="C88" s="55"/>
+      <c r="D88" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="E88" s="54"/>
-      <c r="F88" s="53" t="s">
+      <c r="E88" s="55"/>
+      <c r="F88" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="G88" s="54"/>
-      <c r="H88" s="53" t="s">
+      <c r="G88" s="55"/>
+      <c r="H88" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="I88" s="54"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="57"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="58"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="57"/>
     </row>
     <row r="89" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="16"/>
-      <c r="B89" s="53" t="s">
+      <c r="A89" s="113"/>
+      <c r="B89" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="53" t="s">
+      <c r="C89" s="55"/>
+      <c r="D89" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="53" t="s">
+      <c r="E89" s="55"/>
+      <c r="F89" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="G89" s="54"/>
-      <c r="H89" s="53" t="s">
+      <c r="G89" s="55"/>
+      <c r="H89" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="I89" s="54"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="20"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="18"/>
     </row>
     <row r="90" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="28"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="145" t="s">
+      <c r="A90" s="144"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="O90" s="146"/>
+      <c r="O90" s="38"/>
     </row>
     <row r="91" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="52"/>
-      <c r="D91" s="51" t="s">
+      <c r="C91" s="49"/>
+      <c r="D91" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E91" s="52"/>
-      <c r="F91" s="51" t="s">
+      <c r="E91" s="49"/>
+      <c r="F91" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="G91" s="52"/>
-      <c r="H91" s="51" t="s">
+      <c r="G91" s="49"/>
+      <c r="H91" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="I91" s="52"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="52"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="45"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="45"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="51"/>
     </row>
     <row r="92" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="49"/>
-      <c r="B92" s="42" t="s">
+      <c r="A92" s="46"/>
+      <c r="B92" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C92" s="43"/>
-      <c r="D92" s="42" t="s">
+      <c r="C92" s="40"/>
+      <c r="D92" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E92" s="43"/>
-      <c r="F92" s="42" t="s">
+      <c r="E92" s="40"/>
+      <c r="F92" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G92" s="43"/>
-      <c r="H92" s="42" t="s">
+      <c r="G92" s="40"/>
+      <c r="H92" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I92" s="43"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="47"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="52"/>
+      <c r="O92" s="53"/>
     </row>
     <row r="93" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="49"/>
-      <c r="B93" s="42" t="s">
+      <c r="A93" s="46"/>
+      <c r="B93" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="43"/>
-      <c r="D93" s="42" t="s">
+      <c r="C93" s="40"/>
+      <c r="D93" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="E93" s="43"/>
-      <c r="F93" s="42" t="s">
+      <c r="E93" s="40"/>
+      <c r="F93" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="G93" s="43"/>
-      <c r="H93" s="42" t="s">
+      <c r="G93" s="40"/>
+      <c r="H93" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I93" s="43"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="41"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="34"/>
     </row>
     <row r="94" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="49"/>
-      <c r="B94" s="42" t="s">
+      <c r="A94" s="46"/>
+      <c r="B94" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="42" t="s">
+      <c r="C94" s="40"/>
+      <c r="D94" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="43"/>
-      <c r="F94" s="42" t="s">
+      <c r="E94" s="40"/>
+      <c r="F94" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="G94" s="43"/>
-      <c r="H94" s="42" t="s">
+      <c r="G94" s="40"/>
+      <c r="H94" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="I94" s="43"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="41"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="41"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="34"/>
     </row>
     <row r="95" spans="1:15" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="49"/>
-      <c r="B95" s="42" t="s">
+      <c r="A95" s="46"/>
+      <c r="B95" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="42" t="s">
+      <c r="C95" s="40"/>
+      <c r="D95" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="43"/>
-      <c r="F95" s="42" t="s">
+      <c r="E95" s="40"/>
+      <c r="F95" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G95" s="43"/>
-      <c r="H95" s="42" t="s">
+      <c r="G95" s="40"/>
+      <c r="H95" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="I95" s="43"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="40"/>
-      <c r="O95" s="41"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="34"/>
     </row>
     <row r="96" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="49"/>
-      <c r="B96" s="42" t="s">
+      <c r="A96" s="46"/>
+      <c r="B96" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C96" s="43"/>
-      <c r="D96" s="42" t="s">
+      <c r="C96" s="40"/>
+      <c r="D96" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E96" s="43"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="42" t="s">
+      <c r="E96" s="40"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I96" s="43"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="41"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="34"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="34"/>
     </row>
     <row r="97" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="50"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="38" t="s">
+      <c r="A97" s="47"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="E97" s="39"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="38" t="s">
+      <c r="E97" s="42"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="I97" s="39"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="37"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="648">
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
+  <mergeCells count="652">
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
     <mergeCell ref="A91:A97"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="D91:E91"/>
@@ -4394,602 +4945,49 @@
     <mergeCell ref="N93:O93"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
     <mergeCell ref="F82:G82"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="J82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="J64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="J63:K63"/>
     <mergeCell ref="L63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
